--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2340.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2340.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.188369997377107</v>
+        <v>0.6136646270751953</v>
       </c>
       <c r="B1">
-        <v>1.890898214362382</v>
+        <v>0.5036099553108215</v>
       </c>
       <c r="C1">
-        <v>4.104043601302614</v>
+        <v>0.4500625729560852</v>
       </c>
       <c r="D1">
-        <v>2.091200481016682</v>
+        <v>0.4969479143619537</v>
       </c>
       <c r="E1">
-        <v>0.8029484899535786</v>
+        <v>0.6217054724693298</v>
       </c>
     </row>
   </sheetData>
